--- a/王东东/日报/827日报.xlsx
+++ b/王东东/日报/827日报.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2014.8.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>今日内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -47,6 +43,10 @@
   </si>
   <si>
     <t>对需求文档进行详细描述。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.8.27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,27 +456,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="127.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
